--- a/regionalization_experiments.xlsx
+++ b/regionalization_experiments.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
-  <si>
-    <t>Method</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -40,12 +37,6 @@
     <t>idw</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Local_prec_corr</t>
   </si>
   <si>
@@ -53,6 +44,15 @@
   </si>
   <si>
     <t>Run_experiment</t>
+  </si>
+  <si>
+    <t>Reg_method</t>
+  </si>
+  <si>
+    <t>Cmb_method</t>
+  </si>
+  <si>
+    <t>output_average</t>
   </si>
 </sst>
 </file>
@@ -403,161 +403,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
       <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/regionalization_experiments.xlsx
+++ b/regionalization_experiments.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
         <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/regionalization_experiments.xlsx
+++ b/regionalization_experiments.xlsx
@@ -13,8 +13,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Forfatter</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Forfatter:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Set equal to 1 for using precipitation correction factor from doner catchments.
+Set equal to 0 for using precipitation correction factor from target catchment.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -37,9 +73,6 @@
     <t>idw</t>
   </si>
   <si>
-    <t>Local_prec_corr</t>
-  </si>
-  <si>
     <t>Max_doners</t>
   </si>
   <si>
@@ -53,13 +86,22 @@
   </si>
   <si>
     <t>output_average</t>
+  </si>
+  <si>
+    <t>param_average</t>
+  </si>
+  <si>
+    <t>Doner_prec_corr</t>
+  </si>
+  <si>
+    <t>Experiment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +116,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,187 +457,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="9" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/regionalization_experiments.xlsx
+++ b/regionalization_experiments.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -67,9 +67,6 @@
     <t>arithmetic</t>
   </si>
   <si>
-    <t>wsh_area</t>
-  </si>
-  <si>
     <t>idw</t>
   </si>
   <si>
@@ -95,6 +92,30 @@
   </si>
   <si>
     <t>Experiment</t>
+  </si>
+  <si>
+    <t>physical_similarity</t>
+  </si>
+  <si>
+    <t>Catchment_desc</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>area,lus_fore</t>
+  </si>
+  <si>
+    <t>area,lus_fore,lus_lake</t>
+  </si>
+  <si>
+    <t>area,elev_median,lus_fore,lus_lake</t>
+  </si>
+  <si>
+    <t>area,elev_median</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -458,51 +479,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -527,8 +553,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -553,8 +582,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -565,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -577,10 +609,13 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -591,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -603,10 +638,13 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -620,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -631,8 +669,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -646,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -657,8 +698,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -669,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -683,8 +727,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -695,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -709,8 +756,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -718,13 +768,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -735,8 +785,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -744,25 +797,28 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -770,13 +826,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -785,10 +841,13 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -796,22 +855,54 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
